--- a/biology/Médecine/Amédée_Dechambre/Amédée_Dechambre.xlsx
+++ b/biology/Médecine/Amédée_Dechambre/Amédée_Dechambre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Dechambre</t>
+          <t>Amédée_Dechambre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amédée Dechambre, né le 12 janvier 1812 à Sens et mort le 4 janvier 1886, est un médecin français connu pour avoir été directeur de publication du Dictionnaire encyclopédique des sciences médicales.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am%C3%A9d%C3%A9e_Dechambre</t>
+          <t>Amédée_Dechambre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Sens, dans l’Yonne, où son père, Claude-Étienne était secrétaire de la sous-préfecture en février 1814, les armées coalisées contre Napoléon Ier bombardèrent la ville qui, après douze jours de siège, fut livrée au pillage : rien n’y fut épargné, pas même l’hôtel-Dieu où de nombreux malades, atteints du typhus restèrent abandonnés sans soins ; c’est alors que le père de Dechambre, sollicité au nom du bien public consentit à se charger de cette dangereuse mission. Au bout de quelques jours, il fut atteint par la maladie et succomba, victime de son dévouement.
 La municipalité de Sens, par délibération du 8 avril 1823, accorda à Amédée et à son frère Paul-Édouard une bourse au collège de la ville, qui permit aux deux enfants de poursuivre leurs études. Dechambre conserva toujours la mémoire de ce bienfait et lorsqu’il offrit à la bibliothèque de la ville un exemplaire du Dictionnaire encyclopédique, il écrivit la dédicace suivante : « J’offre cet ouvrage à la ville de Sens comme témoignage de reconnaissance pour l’instruction que j’ai reçue gratuitement et comme hommage à la mémoire de mon père dont un acte de dévouement accompli en 1814 au prix de sa vie m’a valu cette précieuse faveur ».
 Ses études terminées, Dechambre vint à Paris où, le 28 septembre 1830, il fut reçu bachelier-ès-sciences ; il avait peu de ressources et il prit une inscription en vue du grade d’officier de santé : il ne recevait de sa famille qu’une aide de quinze francs par mois et c’est en s'associant avec l’un de ses camarades qu’il put subvenir néanmoins à ses besoins. Nommé externe en 1831, il en remplit les fonctions à l’Hospice de la Vieillesse-Femmes[n 1] où il resta jusqu’en 1832, comme interne provisoire.
-Lorsque le choléra se déclara à Paris en 1832[1] Dechambre fut attaché à une ambulance du quartier Maubert et c’est là qu’il contracta la fièvre typhoïde qui le contraignit à quitter Paris pour aller se reposer dans sa famille à Sens. L’année suivante, il se présenta à l’internat et il fut reçu neuvième dans la même promotion que Jules-Louis Behier[n 2], Jean-Marie Jacquemier[n 3] et beaucoup d’autres : il effectua son internat à l’Hospice de la Vieillesse où il resta quatre années consécutives. Au terme de son internat, il se présenta le 15 janvier 1838, au premier examen qui portait sur la physique, la chimie et l’histoire naturelle en vue de soutenir sa thèse de doctorat en médecine, mais il ne fut pas reçu : il décida de ne pas se représenter dans l’immédiat mais de collaborer aux journaux qui sollicitaient son concours.
+Lorsque le choléra se déclara à Paris en 1832 Dechambre fut attaché à une ambulance du quartier Maubert et c’est là qu’il contracta la fièvre typhoïde qui le contraignit à quitter Paris pour aller se reposer dans sa famille à Sens. L’année suivante, il se présenta à l’internat et il fut reçu neuvième dans la même promotion que Jules-Louis Behier[n 2], Jean-Marie Jacquemier[n 3] et beaucoup d’autres : il effectua son internat à l’Hospice de la Vieillesse où il resta quatre années consécutives. Au terme de son internat, il se présenta le 15 janvier 1838, au premier examen qui portait sur la physique, la chimie et l’histoire naturelle en vue de soutenir sa thèse de doctorat en médecine, mais il ne fut pas reçu : il décida de ne pas se représenter dans l’immédiat mais de collaborer aux journaux qui sollicitaient son concours.
 Dès 1833, Dechambre était entré en relation avec Jules Guérin, rédacteur en chef de la Gazette médicale de Paris et en devint, fin 1838, le secrétaire et le chef de clinique dans l’Institut orthopédique de Paris qu’il venait d’ouvrir au château de la Muette, à Passy. Il passait de longues heures dans cet établissement, recueillant des observations qu’il publiait dans la Gazette médicale de Paris et dans d’autres feuilles de nature à faire connaître les succès obtenus par les méthodes de Pravaz et Guérin.
 Le 1er juin 1839, Salvatore Furnari[n 4] fonda L’Esculape, journal de spécialités médico-chirurgical, qu’il fusionna quelques mois après avec la Gazette des médecins praticiens d’Amédée Latour. C’est dans l’Esculape que Dechambre débuta le 12 avril 1840 sous le titre Les Mouches une série de feuilletons humoristiques qui eurent un très vif succès. En juin 1841, il créa l’Examinateur médical, qui ne devait avoir qu’une durée assez courte, et dans lequel il se révéla un journaliste au jugement un peu sévère sur les hommes ce qui attira les protestations d’un certain nombre de lecteurs ; dans son édition du 1er juillet 1843, qui fut la dernière, Dechambre prit la défense des libertés de la critique et protesta contre l’accusation qu’on lui adressait de faire du scandale : « Le scandale à présent consiste à stigmatiser et honnir les choses scandaleuses ».
 À Paris, ses articles étaient connus de tous les médecins, où son titre de rédacteur en chef de l’Examinateur médical l’avait mis en évidence et où, avec l’assentiment de quelques grands patrons, il exerçait la médecine sans avoir le titre de docteur. En décembre 1843, il obtint les six inscriptions nécessaires pour acquérir le titre et l’autorisation de subir ses examens devant la Faculté de Strasbourg : c’est là, qu’en février 1844, il soutint sa thèse, inspirée par Charles Forget[n 5], avec pour sujet Sur l’hypertrophie concentrique du cœur et les déviations de l’épine par rétraction musculaire.
